--- a/카드사EDA.xlsx
+++ b/카드사EDA.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEDICI\Documents\MEDICI (22-01-19 ~ 22-06-24)\GitHub\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917B7417-98F5-4364-8811-9C6CAEE6807B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="13500" yWindow="630" windowWidth="13815" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+  <si>
+    <t>회사명</t>
+  </si>
   <si>
     <t>총임직원수</t>
   </si>
@@ -34,13 +43,19 @@
     <t>여자평균급여</t>
   </si>
   <si>
+    <t>남자평균근속연수</t>
+  </si>
+  <si>
+    <t>여자평균근속연수</t>
+  </si>
+  <si>
     <t>이용실적누계액</t>
   </si>
   <si>
     <t>카드점유율</t>
   </si>
   <si>
-    <t>회사명</t>
+    <t>남녀평균급여차이</t>
   </si>
   <si>
     <t>케이비국민카드</t>
@@ -64,126 +79,97 @@
     <t>롯데카드</t>
   </si>
   <si>
+    <t>1618</t>
+  </si>
+  <si>
+    <t>2631</t>
+  </si>
+  <si>
+    <t>763</t>
+  </si>
+  <si>
+    <t>866</t>
+  </si>
+  <si>
+    <t>2057</t>
+  </si>
+  <si>
+    <t>861</t>
+  </si>
+  <si>
+    <t>1396</t>
+  </si>
+  <si>
+    <t>16.48</t>
+  </si>
+  <si>
+    <t>16.4</t>
+  </si>
+  <si>
+    <t>12.6</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>14.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    10.6 </t>
+  </si>
+  <si>
+    <t>8.86</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>10.7</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>6.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     8.1 </t>
+  </si>
+  <si>
+    <t>116424968000000</t>
+  </si>
+  <si>
+    <t>149831676000000</t>
+  </si>
+  <si>
+    <t>53116775000000</t>
+  </si>
+  <si>
+    <t>63475834000000</t>
+  </si>
+  <si>
+    <t>123872095000000</t>
+  </si>
+  <si>
+    <t>433730000000</t>
+  </si>
+  <si>
+    <t>71160461000000</t>
+  </si>
+  <si>
     <t>현대카드</t>
-  </si>
-  <si>
-    <t>신용카드사</t>
-  </si>
-  <si>
-    <t>1618</t>
-  </si>
-  <si>
-    <t>2631</t>
-  </si>
-  <si>
-    <t>763</t>
-  </si>
-  <si>
-    <t>866</t>
-  </si>
-  <si>
-    <t>2057</t>
-  </si>
-  <si>
-    <t>861</t>
-  </si>
-  <si>
-    <t>1396</t>
-  </si>
-  <si>
-    <t>1899</t>
-  </si>
-  <si>
-    <t>12091</t>
-  </si>
-  <si>
-    <t>130,000,000</t>
-  </si>
-  <si>
-    <t>정보 없음</t>
-  </si>
-  <si>
-    <t>111,000,000</t>
-  </si>
-  <si>
-    <t>103,000,000</t>
-  </si>
-  <si>
-    <t>132,000,000</t>
-  </si>
-  <si>
-    <t>133,000,000</t>
-  </si>
-  <si>
-    <t>87,000,000</t>
-  </si>
-  <si>
-    <t>113,000,000</t>
-  </si>
-  <si>
-    <t>115,571,428</t>
-  </si>
-  <si>
-    <t>78,000,000</t>
-  </si>
-  <si>
-    <t>68,000,000</t>
-  </si>
-  <si>
-    <t>61,000,000</t>
-  </si>
-  <si>
-    <t>84,000,000</t>
-  </si>
-  <si>
-    <t>80,000,000</t>
-  </si>
-  <si>
-    <t>55,000,000</t>
-  </si>
-  <si>
-    <t>73,000,000</t>
-  </si>
-  <si>
-    <t>71,285,714</t>
-  </si>
-  <si>
-    <t>116424968000000</t>
-  </si>
-  <si>
-    <t>149831676000000</t>
-  </si>
-  <si>
-    <t>53116775000000</t>
-  </si>
-  <si>
-    <t>63475834000000</t>
-  </si>
-  <si>
-    <t>123872095000000</t>
-  </si>
-  <si>
-    <t>433730000000</t>
-  </si>
-  <si>
-    <t>71160461000000</t>
-  </si>
-  <si>
-    <t>112579870000000</t>
-  </si>
-  <si>
-    <t>690895409000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -191,8 +177,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -204,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -227,26 +220,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -288,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,9 +335,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,6 +387,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -529,17 +580,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,269 +620,350 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.98</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>130000000</v>
+      </c>
+      <c r="H2">
+        <v>78000000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="M2">
+        <v>52000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.93</v>
+      </c>
+      <c r="F3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G3">
+        <v>122000000</v>
+      </c>
+      <c r="H3">
+        <v>96000000</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3">
+        <v>21.69</v>
+      </c>
+      <c r="M3">
+        <v>26000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>0.02</v>
+      </c>
+      <c r="E4">
+        <v>0.93</v>
+      </c>
+      <c r="F4">
+        <v>0.04</v>
+      </c>
+      <c r="G4">
+        <v>111000000</v>
+      </c>
+      <c r="H4">
+        <v>68000000</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4">
+        <v>7.69</v>
+      </c>
+      <c r="M4">
+        <v>43000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>0.02</v>
+      </c>
+      <c r="E5">
+        <v>0.87</v>
+      </c>
+      <c r="F5">
+        <v>0.11</v>
+      </c>
+      <c r="G5">
+        <v>103000000</v>
+      </c>
+      <c r="H5">
+        <v>61000000</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5">
+        <v>9.19</v>
+      </c>
+      <c r="M5">
+        <v>42000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>0.01</v>
+      </c>
+      <c r="E6">
+        <v>0.86</v>
+      </c>
+      <c r="F6">
+        <v>0.12</v>
+      </c>
+      <c r="G6">
+        <v>132000000</v>
+      </c>
+      <c r="H6">
+        <v>84000000</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6">
+        <v>17.93</v>
+      </c>
+      <c r="M6">
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>0.03</v>
+      </c>
+      <c r="E7">
+        <v>0.86</v>
+      </c>
+      <c r="F7">
+        <v>0.11</v>
+      </c>
+      <c r="G7">
+        <v>133000000</v>
+      </c>
+      <c r="H7">
+        <v>80000000</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7">
+        <v>0.06</v>
+      </c>
+      <c r="M7">
+        <v>53000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C2">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>0.02</v>
+      </c>
+      <c r="E8">
+        <v>0.85</v>
+      </c>
+      <c r="F8">
+        <v>0.13</v>
+      </c>
+      <c r="G8">
+        <v>87000000</v>
+      </c>
+      <c r="H8">
+        <v>55000000</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8">
+        <v>10.3</v>
+      </c>
+      <c r="M8">
+        <v>32000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0.98</v>
-      </c>
-      <c r="E2">
-        <v>0.01</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2">
-        <v>16.85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>763</v>
+      </c>
+      <c r="D9">
+        <v>0.02</v>
+      </c>
+      <c r="E9">
         <v>0.93</v>
       </c>
-      <c r="E3">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3">
-        <v>21.69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>0.02</v>
-      </c>
-      <c r="D4">
-        <v>0.93</v>
-      </c>
-      <c r="E4">
+      <c r="F9">
         <v>0.04</v>
       </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4">
-        <v>7.69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>0.02</v>
-      </c>
-      <c r="D5">
-        <v>0.87</v>
-      </c>
-      <c r="E5">
-        <v>0.11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5">
-        <v>9.19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>0.01</v>
-      </c>
-      <c r="D6">
-        <v>0.86</v>
-      </c>
-      <c r="E6">
-        <v>0.12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6">
-        <v>17.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>0.03</v>
-      </c>
-      <c r="D7">
-        <v>0.86</v>
-      </c>
-      <c r="E7">
-        <v>0.11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>0.02</v>
-      </c>
-      <c r="D8">
-        <v>0.85</v>
-      </c>
-      <c r="E8">
-        <v>0.13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>0.01</v>
-      </c>
-      <c r="D9">
-        <v>0.73</v>
-      </c>
-      <c r="E9">
-        <v>0.26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
+      <c r="G9">
+        <v>113000000</v>
+      </c>
+      <c r="H9">
+        <v>73000000</v>
       </c>
       <c r="I9">
+        <v>7.06</v>
+      </c>
+      <c r="J9">
+        <v>6.88</v>
+      </c>
+      <c r="K9">
+        <v>112579870000000</v>
+      </c>
+      <c r="L9">
         <v>16.29</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10">
-        <v>0.01</v>
-      </c>
-      <c r="D10">
-        <v>0.87</v>
-      </c>
-      <c r="E10">
-        <v>0.11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10">
-        <v>100</v>
+      <c r="M9">
+        <v>40000000</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>